--- a/doc/1.spark原理深度剖析.xlsx
+++ b/doc/1.spark原理深度剖析.xlsx
@@ -3488,6 +3488,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/1.spark原理深度剖析.xlsx
+++ b/doc/1.spark原理深度剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="11652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,74 +59,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1074,14 +1006,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1090,8 +1022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990850" y="2981325"/>
-          <a:ext cx="2114550" cy="238125"/>
+          <a:off x="2686050" y="2987040"/>
+          <a:ext cx="1885950" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,13 +1082,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
@@ -1170,8 +1102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="3219450"/>
-          <a:ext cx="0" cy="457201"/>
+          <a:off x="3629025" y="3520441"/>
+          <a:ext cx="0" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2786,7 +2718,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3067,11 +2999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
